--- a/data/RootShoot.xlsx
+++ b/data/RootShoot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://conservation-my.sharepoint.com/personal/ssprenkle-hyppolite_conservation_org/Documents/Research/Roadmap/TIA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://conservation.sharepoint.com/sites/NaturalClimateSolutionsTeam/Shared Documents/NCS Exponential Roadmap/Synthesis &amp; Action Tracks/Track Analyses/Climate Smart Farming Track/TreesInAgricultureTIA/VivianAnalyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{F18FD93F-C777-487F-B626-727C4772C34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAF319C6-564F-4D3E-8D7E-1A289F763DE8}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{F18FD93F-C777-487F-B626-727C4772C34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD7ABF5E-5AA0-45C8-B510-EBDCBAE796AE}"/>
   <bookViews>
-    <workbookView xWindow="18710" yWindow="1180" windowWidth="11560" windowHeight="10420" xr2:uid="{742DADBF-0E09-4C86-A83D-A31EFBA3F91A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{742DADBF-0E09-4C86-A83D-A31EFBA3F91A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>BIOME_NAME</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>The values from Mokany for grassland (4.2-4.5), savannah (0.6), and even deserts (1.1) are much higher than the values for forest and are likely heavily impacted by the root systems of the grasses and shrubs that make up the majority of the vegetative biomass in these systems.  It is not possible to isolate the tree components from the Mokany data, so, we use the ratio given for "Trop/Subrtop/temp dry woodland" (0.3) as the most similar  that is still dominated by tree components</t>
+  </si>
+  <si>
+    <t>Boreal Forests/Taiga</t>
+  </si>
+  <si>
+    <t>Boreal forest</t>
   </si>
 </sst>
 </file>
@@ -458,18 +464,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133B0F6D-9524-481F-84DA-E9AF557F6371}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="30.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -484,10 +491,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -501,10 +506,8 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -518,10 +521,8 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -535,10 +536,8 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -552,10 +551,8 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -569,10 +566,8 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -586,10 +581,8 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -603,10 +596,8 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -620,10 +611,8 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -637,10 +626,8 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -654,8 +641,22 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="E12">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -928,13 +929,40 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EB1E03E-A6C0-4779-85F6-1B485B26C55F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EB1E03E-A6C0-4779-85F6-1B485B26C55F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b60fcec-28c9-4e8b-a960-afa272afc1e1"/>
+    <ds:schemaRef ds:uri="d82404bc-5d15-429b-8087-31844391c756"/>
+    <ds:schemaRef ds:uri="f57df1ab-6810-4fa8-9caa-de92a9b262c5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9979DC92-7456-4260-8B81-D923EF8ECE0B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9979DC92-7456-4260-8B81-D923EF8ECE0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2CC83A6-3456-4DFA-8B78-8DA26AE6065F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2CC83A6-3456-4DFA-8B78-8DA26AE6065F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4b60fcec-28c9-4e8b-a960-afa272afc1e1"/>
+    <ds:schemaRef ds:uri="f57df1ab-6810-4fa8-9caa-de92a9b262c5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>